--- a/TEMOA_Europe_Results/1_Results_bau/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_4_Hydrogen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>tech</t>
   </si>
@@ -53,22 +53,25 @@
     <t>output_comm</t>
   </si>
   <si>
-    <t>HH2_BIO_SR_C_NEW</t>
-  </si>
-  <si>
     <t>HH2_WE_ALK_DS_NEW</t>
   </si>
   <si>
+    <t>HH2_WE_PEM_DS_NEW</t>
+  </si>
+  <si>
+    <t>HH2_NGA_CS_CCS_NEW</t>
+  </si>
+  <si>
     <t>HH2_BIO_CM_CCS_NEW</t>
   </si>
   <si>
     <t>IMP_HH2_DMY_TECH</t>
   </si>
   <si>
+    <t>HH2_WE_DT</t>
+  </si>
+  <si>
     <t>HH2_CT</t>
-  </si>
-  <si>
-    <t>HH2_WE_DT</t>
   </si>
   <si>
     <t>HH2_CU</t>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,22 +532,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.09000000000033062</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-2.304104589231693E-07</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -573,16 +576,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08999999999998176</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.09000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-2.748529259185018E-07</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -605,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -620,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-6.828606604900867E-07</v>
+        <v>-7.847547237821439E-07</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -661,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03273004572342395</v>
+        <v>-9.293509503253425E-07</v>
       </c>
       <c r="J5">
-        <v>0.1835517687626187</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1752818535935202</v>
+        <v>-1.273729707063076E-07</v>
       </c>
       <c r="L5">
-        <v>0.1299690871581546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -678,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -696,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.008715315138350794</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008716333640313727</v>
+        <v>0.0453929594107418</v>
       </c>
       <c r="J6">
-        <v>0.008716030705212773</v>
+        <v>0.3419945886001209</v>
       </c>
       <c r="K6">
-        <v>1.841051083260536</v>
+        <v>2.172687677242991</v>
       </c>
       <c r="L6">
-        <v>12.57255789629517</v>
+        <v>12.89185617373659</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -716,10 +719,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -734,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>43.06988421882529</v>
+        <v>0.008715467084123941</v>
       </c>
       <c r="I7">
-        <v>43.08254996589965</v>
+        <v>0.008716377557813003</v>
       </c>
       <c r="J7">
-        <v>215.6580507446135</v>
+        <v>0.00871680736968285</v>
       </c>
       <c r="K7">
-        <v>211.7744838257548</v>
+        <v>0.008709448560073619</v>
       </c>
       <c r="L7">
-        <v>373.2780846009219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -754,37 +757,75 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.606961971436452E-06</v>
+      </c>
+      <c r="H8">
+        <v>10.41527491073119</v>
+      </c>
+      <c r="I8">
+        <v>10.41527491073118</v>
+      </c>
+      <c r="J8">
+        <v>198.7473001379223</v>
+      </c>
+      <c r="K8">
+        <v>229.2312178548866</v>
+      </c>
+      <c r="L8">
+        <v>426.0345084944929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.09</v>
-      </c>
-      <c r="H8">
-        <v>0.09000000000000002</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>41.08388582136406</v>
-      </c>
-      <c r="L8">
-        <v>41.08388582136406</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.09000027485292593</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4.040435035409768</v>
+      </c>
+      <c r="L9">
+        <v>4.040435035409768</v>
       </c>
     </row>
   </sheetData>
